--- a/4 COURSE/Основы бизнеса и права/Лабораторная работа 3/Лабораторная 3 Халалеенко ФИТ 4-1.xlsx
+++ b/4 COURSE/Основы бизнеса и права/Лабораторная работа 3/Лабораторная 3 Халалеенко ФИТ 4-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Files\Univer\4 COURSE\Основы бизнеса и права\Лабораторная работа 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CEA0B3-199A-4624-A590-E9112C8D445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198FCFE0-A7E0-4C63-B983-D7C6EFFDEA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,18 +924,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -995,6 +983,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1017,6 +1017,1501 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание исх данные, решение 1'!$B$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Сумма, руб.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Задание исх данные, решение 1'!$A$60:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1 Материалы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Энергозатраты</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Затраты на оплату труда персонала</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 Страховые взносы в фонд социальной защиты населения (34% от п.3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Обязательное государственное страхование (0,5% от п.3)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 Амортизационные отчисления</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 Затраты на аттестацию, обучение и пр.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 Накладные расходы (50% от (п. 3+п.4+п.5))</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Затраты на разработку проекта</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание исх данные, решение 1'!$B$60:$B$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1449.732498592371</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>492.90904952140619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2486624929618557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.671875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>974.94510530336947</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3724.8731909101089</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1EBB-4E7B-A84C-A1497C178228}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Задание исх данные, решение 1'!$C$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% к итогу</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Задание исх данные, решение 1'!$A$60:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1 Материалы</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Энергозатраты</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 Затраты на оплату труда персонала</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 Страховые взносы в фонд социальной защиты населения (34% от п.3)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 Обязательное государственное страхование (0,5% от п.3)</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 Амортизационные отчисления</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 Затраты на аттестацию, обучение и пр.</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 Накладные расходы (50% от (п. 3+п.4+п.5))</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Затраты на разработку проекта</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Задание исх данные, решение 1'!$C$60:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.2322567144570395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5964570322854537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.920318203856866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.232908189311335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19460159101928431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66235476311535457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.987189513860926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.173913992093738</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1EBB-4E7B-A84C-A1497C178228}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630910</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>50440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1469569</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>164204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC4B041-F3BB-42BD-8B9E-450ECED59482}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1284,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1300,7 +2795,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1"/>
@@ -1328,21 +2823,21 @@
         <v>2</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
@@ -1356,12 +2851,12 @@
         <f>I9</f>
         <v>17.899999999999999</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="53">
         <f>B4*C4</f>
         <v>35.799999999999997</v>
       </c>
       <c r="E4" s="7"/>
-      <c r="H4" s="62"/>
+      <c r="H4" s="58"/>
       <c r="I4" s="8">
         <v>1</v>
       </c>
@@ -1405,7 +2900,7 @@
         <f>I10</f>
         <v>10.1</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="53">
         <f>B5*C5</f>
         <v>10.1</v>
       </c>
@@ -1413,7 +2908,7 @@
       <c r="H5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="48"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -1425,18 +2920,18 @@
       <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="53">
         <f>B4+B5</f>
         <v>3</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="53">
         <f>C4+C5</f>
         <v>28</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="54">
         <f>D4+D5</f>
         <v>45.9</v>
       </c>
@@ -1444,7 +2939,7 @@
       <c r="H6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="69">
         <v>2</v>
       </c>
       <c r="J6" s="9">
@@ -1479,7 +2974,7 @@
       <c r="H7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="69">
         <v>1</v>
       </c>
       <c r="J7" s="9">
@@ -1517,7 +3012,7 @@
       <c r="H8" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="48"/>
+      <c r="I8" s="69"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -1529,14 +3024,14 @@
       <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="61"/>
       <c r="H9" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="69">
         <v>17.899999999999999</v>
       </c>
       <c r="J9" s="9">
@@ -1577,7 +3072,7 @@
       <c r="H10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="69">
         <v>10.1</v>
       </c>
       <c r="J10" s="9">
@@ -1618,7 +3113,7 @@
       <c r="H11" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="48">
+      <c r="I11" s="69">
         <v>110</v>
       </c>
       <c r="J11" s="9">
@@ -1660,7 +3155,7 @@
       <c r="H12" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="48"/>
+      <c r="I12" s="69"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -1682,7 +3177,7 @@
       <c r="H13" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="69">
         <v>28</v>
       </c>
       <c r="J13" s="9">
@@ -1724,7 +3219,7 @@
       <c r="H14" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="69">
         <v>1</v>
       </c>
       <c r="J14" s="9">
@@ -1766,7 +3261,7 @@
       <c r="H15" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="69">
         <v>3</v>
       </c>
       <c r="J15" s="9">
@@ -1808,7 +3303,7 @@
       <c r="H16" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="69">
         <v>1</v>
       </c>
       <c r="J16" s="9">
@@ -1850,7 +3345,7 @@
       <c r="H17" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="48">
+      <c r="I17" s="69">
         <v>1</v>
       </c>
       <c r="J17" s="9">
@@ -1892,7 +3387,7 @@
       <c r="H18" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="69">
         <v>8</v>
       </c>
       <c r="J18" s="9">
@@ -1934,7 +3429,7 @@
       <c r="H19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="48"/>
+      <c r="I19" s="69"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -1956,7 +3451,7 @@
       <c r="H20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="69">
         <v>1076.5999999999999</v>
       </c>
       <c r="J20" s="9">
@@ -1998,7 +3493,7 @@
       <c r="H21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="69">
         <v>914.5</v>
       </c>
       <c r="J21" s="9">
@@ -2033,14 +3528,14 @@
       <c r="A22" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="56">
         <f>B21/12</f>
         <v>147.33333333333334</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="69">
         <v>45</v>
       </c>
       <c r="J22" s="9">
@@ -2077,7 +3572,7 @@
       <c r="H23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="48">
+      <c r="I23" s="69">
         <v>15</v>
       </c>
       <c r="J23" s="9">
@@ -2109,15 +3604,15 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
       <c r="H24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="48">
+      <c r="I24" s="69">
         <v>40</v>
       </c>
       <c r="J24" s="9">
@@ -2149,17 +3644,17 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="72"/>
+      <c r="C25" s="68"/>
       <c r="H25" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="I25" s="48"/>
+      <c r="I25" s="69"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -2171,7 +3666,7 @@
       <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="70"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -2181,7 +3676,7 @@
       <c r="H26" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="48">
+      <c r="I26" s="69">
         <v>5</v>
       </c>
       <c r="J26" s="9">
@@ -2227,7 +3722,7 @@
       <c r="H27" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="69">
         <v>6</v>
       </c>
       <c r="J27" s="9">
@@ -2262,18 +3757,18 @@
       <c r="A28" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="60">
+      <c r="B28" s="56">
         <f>B27*I22/100</f>
         <v>484.46999999999991</v>
       </c>
-      <c r="C28" s="60">
+      <c r="C28" s="56">
         <f>C27*I22/100</f>
         <v>411.52499999999998</v>
       </c>
       <c r="H28" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="48">
+      <c r="I28" s="69">
         <v>0.05</v>
       </c>
       <c r="J28" s="9">
@@ -2308,18 +3803,18 @@
       <c r="A29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="60">
+      <c r="B29" s="56">
         <f>B27*I23/100</f>
         <v>161.48999999999998</v>
       </c>
-      <c r="C29" s="60">
+      <c r="C29" s="56">
         <f>C27*I23/100</f>
         <v>137.17500000000001</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I29" s="48"/>
+      <c r="I29" s="69"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -2334,18 +3829,18 @@
       <c r="A30" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="60">
+      <c r="B30" s="56">
         <f>I26*I24/100*B27/B22</f>
         <v>14.614479638009048</v>
       </c>
-      <c r="C30" s="60">
+      <c r="C30" s="56">
         <f>I27*I24/100*C27/B22</f>
         <v>14.896832579185517</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="69">
         <v>4</v>
       </c>
       <c r="J30" s="9">
@@ -2380,18 +3875,18 @@
       <c r="A31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="60">
+      <c r="B31" s="56">
         <f>B27*I28</f>
         <v>53.83</v>
       </c>
-      <c r="C31" s="60">
+      <c r="C31" s="56">
         <f>I28*C27</f>
         <v>45.725000000000001</v>
       </c>
       <c r="H31" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="69">
         <v>2</v>
       </c>
       <c r="J31" s="9">
@@ -2426,18 +3921,18 @@
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="60">
+      <c r="B32" s="56">
         <f>B27+B28+B29+B30+B31</f>
         <v>1791.0044796380087</v>
       </c>
-      <c r="C32" s="60">
+      <c r="C32" s="56">
         <f>C27+C28+C29+C30+C31</f>
         <v>1523.8218325791854</v>
       </c>
       <c r="H32" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -2452,18 +3947,18 @@
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="60">
+      <c r="B33" s="56">
         <f>(B15+B18+B19)/B20*B32</f>
         <v>243.12278004135862</v>
       </c>
-      <c r="C33" s="60">
+      <c r="C33" s="56">
         <f>(B15+B18+B19)/B20*C32</f>
         <v>206.85364243156363</v>
       </c>
       <c r="H33" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I33" s="48">
+      <c r="I33" s="69">
         <v>1090</v>
       </c>
       <c r="J33" s="9">
@@ -2498,18 +3993,18 @@
       <c r="A34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="60">
+      <c r="B34" s="56">
         <f>B32+B33</f>
         <v>2034.1272596793674</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="56">
         <f>C32+C33</f>
         <v>1730.6754750107491</v>
       </c>
       <c r="H34" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I34" s="48">
+      <c r="I34" s="69">
         <v>624.5</v>
       </c>
       <c r="J34" s="9">
@@ -2547,7 +4042,7 @@
       <c r="H35" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="I35" s="48"/>
+      <c r="I35" s="69"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -2559,15 +4054,15 @@
       <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="67"/>
-      <c r="C36" s="67"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
       <c r="H36" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="48">
+      <c r="I36" s="69">
         <v>5</v>
       </c>
       <c r="J36" s="9">
@@ -2611,7 +4106,7 @@
       <c r="H37" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="69">
         <v>8</v>
       </c>
       <c r="J37" s="9">
@@ -2657,7 +4152,7 @@
       <c r="H38" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="I38" s="48"/>
+      <c r="I38" s="69"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -2683,7 +4178,7 @@
       <c r="H39" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="48">
+      <c r="I39" s="69">
         <v>0.5</v>
       </c>
       <c r="J39" s="9">
@@ -2729,7 +4224,7 @@
       <c r="H40" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="48">
+      <c r="I40" s="69">
         <v>0.2</v>
       </c>
       <c r="J40" s="9">
@@ -2775,7 +4270,7 @@
       <c r="H41" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="I41" s="49"/>
+      <c r="I41" s="70"/>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
       <c r="L41" s="28"/>
@@ -2801,7 +4296,7 @@
       <c r="H42" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="70">
         <v>102</v>
       </c>
       <c r="J42" s="28">
@@ -2847,7 +4342,7 @@
       <c r="H43" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="49">
+      <c r="I43" s="70">
         <v>10</v>
       </c>
       <c r="J43" s="28">
@@ -2885,7 +4380,7 @@
       <c r="H44" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="I44" s="50">
+      <c r="I44" s="71">
         <v>0.85</v>
       </c>
       <c r="J44" s="47">
@@ -2923,7 +4418,7 @@
       <c r="H45" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="I45" s="50">
+      <c r="I45" s="71">
         <v>0.33</v>
       </c>
       <c r="J45" s="47">
@@ -2955,14 +4450,14 @@
       </c>
     </row>
     <row r="46" spans="1:18" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="68"/>
+      <c r="B46" s="64"/>
       <c r="H46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="51">
+      <c r="I46" s="72">
         <v>1</v>
       </c>
       <c r="J46" s="14">
@@ -3013,7 +4508,7 @@
       <c r="H47" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="51">
+      <c r="I47" s="72">
         <v>670</v>
       </c>
       <c r="J47" s="14">
@@ -3096,8 +4591,8 @@
         <f>B48+B49</f>
         <v>1714.5</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57">
         <f>D48+D49</f>
         <v>296.0625</v>
       </c>
@@ -3108,11 +4603,11 @@
       <c r="F50" s="15"/>
     </row>
     <row r="52" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
     </row>
     <row r="53" spans="1:6" ht="59.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="26" t="s">
@@ -3185,24 +4680,24 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="64"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
       <c r="F56" s="31">
         <f>(F54+F55)</f>
         <v>59.466000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.45" x14ac:dyDescent="0.4">
-      <c r="A58" s="66" t="s">
+      <c r="A58" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
     </row>
     <row r="59" spans="1:6" ht="15.9" x14ac:dyDescent="0.4">
       <c r="A59" s="30" t="s">
@@ -3348,6 +4843,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3365,129 +4861,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="54"/>
+      <c r="A4" s="50"/>
     </row>
     <row r="5" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="52" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="54"/>
+      <c r="A6" s="50"/>
     </row>
     <row r="7" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="51" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="54"/>
+      <c r="A8" s="50"/>
     </row>
     <row r="9" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="52" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="29.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="52" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="68.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="54"/>
+      <c r="A15" s="50"/>
     </row>
     <row r="16" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="51" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="54"/>
+      <c r="A17" s="50"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="52" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="52" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A20" s="54"/>
+      <c r="A20" s="50"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="51" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A23" s="54"/>
+      <c r="A23" s="50"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="52" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A25" s="54"/>
+      <c r="A25" s="50"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="51" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="51" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
+      <c r="A28" s="50"/>
     </row>
     <row r="29" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="52" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A30" s="54"/>
+      <c r="A30" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
